--- a/models.xlsx
+++ b/models.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thodorischaros/Documents/MSc/AIDL_B02_AdvancedTopicsInDeepLearning/assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thodorischaros/Documents/MSc/AIDL_B02_AdvancedTopicsInDeepLearning/assignments/RL-Space-Invaders-DQN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDF1F8-59A2-7145-9F82-566C047767BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCFF7DD-27A7-D84E-8376-E979080EF28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16800" xr2:uid="{236AF632-8DD9-4934-8E71-0C5E8EE714BF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>MACHINE</t>
+  </si>
+  <si>
+    <t>LEARNING_RATE</t>
+  </si>
+  <si>
+    <t>SimpleDQN</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -466,29 +475,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,98 +506,101 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>10000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>32</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>1000000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0.01</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>150000</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>10000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>32</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>1000000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.01</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>200000</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -595,94 +608,147 @@
         <v>10000</v>
       </c>
       <c r="C4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D4" s="2">
         <v>32</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>1000000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>150000</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="C5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D5" s="2">
         <v>32</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>100000</v>
       </c>
       <c r="F5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="2">
         <v>150000</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
         <v>498.5</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="C6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6" s="2">
         <v>32</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>1000000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.01</v>
       </c>
-      <c r="F6" s="2">
-        <v>200000</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
+      <c r="G6" s="2">
+        <v>150000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K6">
+  <autoFilter ref="A1:L1" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
       <sortCondition ref="A1:A6"/>
     </sortState>
   </autoFilter>

--- a/models.xlsx
+++ b/models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thodorischaros/Documents/MSc/AIDL_B02_AdvancedTopicsInDeepLearning/assignments/RL-Space-Invaders-DQN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCFF7DD-27A7-D84E-8376-E979080EF28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E2A936-A85E-BD46-AD45-E8746F0F933D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16800" xr2:uid="{236AF632-8DD9-4934-8E71-0C5E8EE714BF}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="C4" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D4" s="2">
         <v>32</v>
@@ -617,7 +617,7 @@
         <v>1000000</v>
       </c>
       <c r="F4" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G4" s="2">
         <v>150000</v>

--- a/models.xlsx
+++ b/models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thodorischaros/Documents/MSc/AIDL_B02_AdvancedTopicsInDeepLearning/assignments/RL-Space-Invaders-DQN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E2A936-A85E-BD46-AD45-E8746F0F933D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C5C59F-BEF8-0F42-8384-A27BAEB77478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16800" xr2:uid="{236AF632-8DD9-4934-8E71-0C5E8EE714BF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -73,15 +73,9 @@
     <t>colab</t>
   </si>
   <si>
-    <t>wlaptop</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>running</t>
-  </si>
-  <si>
     <t>EPSILON_END</t>
   </si>
   <si>
@@ -103,14 +97,20 @@
     <t>SimpleDQN</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,14 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,10 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,281 +484,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="2">
+        <v>150000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="2">
+        <v>150000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>566</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C4" s="2">
         <v>10000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E4" s="2">
         <v>32</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F4" s="2">
         <v>1000000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G4" s="2">
         <v>0.01</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H4" s="2">
         <v>150000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="2">
-        <v>200000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>7000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>32</v>
       </c>
-      <c r="E5" s="2">
-        <v>100000</v>
-      </c>
       <c r="F5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.01</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>150000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="2">
-        <v>498.5</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="2">
+        <v>527</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>150000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
         <v>7000</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E7" s="2">
         <v>32</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>1000000</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="2">
         <v>0.01</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H7" s="2">
         <v>150000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G7" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
+        <v>554</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>150000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
-      <sortCondition ref="A1:A6"/>
+  <autoFilter ref="A1:N7" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N8">
+      <sortCondition ref="B1:B8"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
